--- a/static/document/experience.xlsx
+++ b/static/document/experience.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,9 +37,6 @@
     <t>expTitle</t>
   </si>
   <si>
-    <t>expDescription</t>
-  </si>
-  <si>
     <t>Mar 2021- Apr 2021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,13 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A simulation web project for Lincoln University gym management system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get the requirements from simulation customer's interview document.Create an information management system with a different access level.Features Include class booking, class management, finance management, member information management, and background service(e-mail and notification).Visualize the static data of the CSV file.</t>
-  </si>
-  <si>
     <t>Lincoln University , Canterbury</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,13 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python, Flask, PostgreSQL, HTML, CSS, Jira, Git, GitHub</t>
-  </si>
-  <si>
-    <t>A data visualization web project for agriculture data.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Organize the agriculture data and analyze it.Visualize the agriculture data from a database(line chart / bar chart)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,56 +73,131 @@
     <t>Jul 2021 - Oct 2021</t>
   </si>
   <si>
-    <t>Python, Flask, Microsoft SQL server, HTML, CSS, jQuery, eChart, Apache</t>
-  </si>
-  <si>
-    <t>Be responsible for hotel product development and assist over 100 hotels in analyzing hotel operational data and operating hotels.</t>
+    <t>Software developer</t>
+  </si>
+  <si>
+    <t>Features for analyzing the data and uploading it.Features for monitoring and comparing the dynamic temperature data</t>
+  </si>
+  <si>
+    <t>Feb 2022 - present</t>
+  </si>
+  <si>
+    <t>C# .NET Framework</t>
+  </si>
+  <si>
+    <t>Self-employee , Canterbury</t>
+  </si>
+  <si>
+    <t>Nov 2021 - Feb 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, Tkinter, Matplotlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lincoln University Gym Management System(Simulated web project)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agriculture Data Process and Visualization System(Web project)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic Components Test Data Management System(Web project)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermal Test Data Monitor System(tkinter software)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-use CV Website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic Product line Project(.net software)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar 2022 - May 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May 2022 - July 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apr 2022 - present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermal Test Data Process and Analysis Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User story edit.Log in validate system.Club member management section(including email communication).Class booking and management section(including data visulization)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A data upload and management web system project.Features for analyzing the data of a special type file and uploading it into the database.Features for monitoring the process of upload and pass rate of the data in the database.Features for exporting the data as CSV file.Features for analyzing and visualizing the data.Deploy the website on the server through Apache</t>
-  </si>
-  <si>
-    <t>Nov 2021 - Feb 2022</t>
-  </si>
-  <si>
-    <t>Software developer</t>
-  </si>
-  <si>
-    <t>Python, Tkinter, Matplsotlib</t>
-  </si>
-  <si>
-    <t>A data upload and visualization desk application(software based on Matplsotlib) project.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features for analyzing the data and uploading it.Features for monitoring and comparing the dynamic temperature data</t>
-  </si>
-  <si>
-    <t>Feb 2022 - present</t>
-  </si>
-  <si>
-    <t>C# .NET Framework</t>
-  </si>
-  <si>
-    <t>The features extension for a hardware test software(based on .Net Framework).</t>
-  </si>
-  <si>
-    <t>Fix older Bugs.Make the process of machine work become automatic from manual</t>
-  </si>
-  <si>
-    <t>Self-employee , Canterbury</t>
-  </si>
-  <si>
-    <t>Mar 2022 - present</t>
-  </si>
-  <si>
-    <t>Python, Flask, HTML, CSS, react, eChart, Git/GitHub</t>
-  </si>
-  <si>
-    <t>Self CV Website</t>
-  </si>
-  <si>
-    <t>Back-end data process.React front-end build.Dynamic validation features.Dynamic charts.Background management channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make manual test product line become a automatic test product line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This website.CV display.Skills document collection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-end data process.React front-end build.Dynamic validation features.Dynamic trend charts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermal test data process and analysis(programing).Parameters prediction(programing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python,Flask, PostgreSQL, HTML, CSS, Jira, Git/GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, Flask, HTML, CSS, react, JavaScript, eChart, Git/GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, Flask, HTML, CSS, jQuery, JavaScript, eChart, Git/GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, Flask, Mic SQL server, HTML, CSS, JavaScript, jQuery, eChart, Apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expDescription(must use , to separate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, Tkinter, Matplotlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, Tkinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-use CV Website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-use PC Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick screen shot.Quick translation.Quick take text from picture.Quick Highlight.Quick picture formate transform.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -541,145 +599,214 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
+      <c r="G10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/static/document/experience.xlsx
+++ b/static/document/experience.xlsx
@@ -144,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Make manual test product line become a automatic test product line.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This website.CV display.Skills document collection.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Back-end data process.React front-end build.Dynamic validation features.Dynamic trend charts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,7 +188,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quick screen shot.Quick translation.Quick take text from picture.Quick Highlight.Quick picture formate transform.</t>
+    <t>This website.CV display.Skills document collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick screen shot.Quick translation.Quick take text from picture.Quick Highlight.Quick picture formate transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make manual test product line become a automatic test product line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -616,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -708,13 +708,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -731,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
         <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -754,13 +754,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -783,7 +783,7 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -800,13 +800,13 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
